--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThucHienNganSach_GiaiDoanTo.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThucHienNganSach_GiaiDoanTo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Viettel\BQP\14-09-2022\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\tuananh\qlns-ctc-bqp\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$6:$R$7</definedName>
     <definedName name="I_listColumn_I">Sheet1!$D$9</definedName>
     <definedName name="I_lstData_I" localSheetId="0">Sheet1!$D$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$R$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$R$22</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$B$6:$R$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="105">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -108,13 +108,7 @@
     <t xml:space="preserve">Thuyết minh báo cáo: </t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>Đơn vị chủ hàng, chủ đầu tư</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t>&lt;#format cell(ItemsFormat)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
@@ -350,6 +344,24 @@
   </si>
   <si>
     <t>Mẫu số 04/QTN-QNH</t>
+  </si>
+  <si>
+    <t>&lt;#Ten1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh3&gt;</t>
   </si>
 </sst>
 </file>
@@ -553,7 +565,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -619,9 +631,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -642,18 +651,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -676,10 +673,28 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -966,10 +981,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="20" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,62 +1017,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q1" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" s="53"/>
+      <c r="B1" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="R1" s="51"/>
       <c r="S1" s="20"/>
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
     </row>
     <row r="2" spans="1:22" s="14" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
+      <c r="B2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="20"/>
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
       <c r="V2" s="20"/>
     </row>
     <row r="3" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
+      <c r="C3" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -1067,7 +1082,7 @@
     </row>
     <row r="4" spans="1:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q4" s="19"/>
-      <c r="R4" s="34"/>
+      <c r="R4" s="33"/>
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
       <c r="U4" s="21"/>
@@ -1088,11 +1103,11 @@
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
-      <c r="P5" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
+      <c r="P5" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
@@ -1100,56 +1115,56 @@
     </row>
     <row r="6" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>25</v>
+      <c r="C6" s="52" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="G6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="H6" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="I6" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="J6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="K6" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="L6" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="M6" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="N6" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="O6" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="P6" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="Q6" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="R6" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="Q6" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="R6" s="23" t="s">
-        <v>69</v>
       </c>
       <c r="S6" s="28"/>
       <c r="T6" s="28"/>
@@ -1158,52 +1173,52 @@
     </row>
     <row r="7" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="G7" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="H7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="I7" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="J7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="K7" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="L7" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="M7" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="N7" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="O7" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="P7" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="Q7" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="23" t="s">
+      <c r="R7" s="23" t="s">
         <v>82</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="R7" s="23" t="s">
-        <v>84</v>
       </c>
       <c r="S7" s="28"/>
       <c r="T7" s="28"/>
@@ -1212,52 +1227,52 @@
     </row>
     <row r="8" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="36" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="G8" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="H8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="I8" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="J8" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="K8" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="L8" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="M8" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="N8" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="O8" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="36" t="s">
+      <c r="P8" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="36" t="s">
+      <c r="Q8" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="36" t="s">
+      <c r="R8" s="35" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" s="36" t="s">
-        <v>51</v>
       </c>
       <c r="S8" s="28"/>
       <c r="T8" s="28"/>
@@ -1266,10 +1281,10 @@
     </row>
     <row r="9" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="35" t="s">
-        <v>30</v>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="34" t="s">
+        <v>28</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
@@ -1292,31 +1307,31 @@
     </row>
     <row r="10" spans="1:22" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="39"/>
+      <c r="D10" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="38"/>
       <c r="S10" s="27"/>
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
@@ -1382,11 +1397,11 @@
       <c r="G13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
-      <c r="P13" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
+      <c r="P13" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
@@ -1396,54 +1411,60 @@
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="43"/>
+      <c r="B14" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="48"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
-      <c r="G14" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="G14" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
+      <c r="P14" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
     </row>
-    <row r="15" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
+        <v>20</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
-      <c r="R15" s="16"/>
+      <c r="P15" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
@@ -1453,21 +1474,23 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
-      <c r="R16" s="16"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
@@ -1477,21 +1500,23 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
-      <c r="R17" s="16"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
       <c r="S17" s="16"/>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
@@ -1501,21 +1526,23 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
-      <c r="R18" s="16"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
@@ -1525,21 +1552,23 @@
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
-      <c r="R19" s="16"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
       <c r="S19" s="16"/>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
@@ -1549,78 +1578,87 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
     </row>
-    <row r="21" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="16"/>
+      <c r="B21" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
+      <c r="P21" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
     </row>
     <row r="23" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
@@ -1761,27 +1799,27 @@
       <c r="V28" s="17"/>
     </row>
     <row r="29" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
     </row>
     <row r="30" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
@@ -1852,19 +1890,50 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
     </row>
+    <row r="33" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="19">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="P5:R5"/>
     <mergeCell ref="C3:P3"/>
     <mergeCell ref="P13:R13"/>
     <mergeCell ref="P14:R14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="C2:P2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="B16:C20"/>
+    <mergeCell ref="G16:I20"/>
+    <mergeCell ref="P16:R20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>
@@ -2068,16 +2137,16 @@
     </row>
     <row r="10" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="H10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>50</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="38" t="s">
-        <v>27</v>
+      <c r="N10" s="37" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2088,10 +2157,10 @@
         <v>19</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2100,62 +2169,62 @@
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H13" s="46" t="s">
-        <v>96</v>
+      <c r="H13" s="41" t="s">
+        <v>94</v>
       </c>
       <c r="I13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="N13" s="46" t="s">
-        <v>95</v>
+      <c r="M13" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="41" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H14" s="47" t="s">
-        <v>28</v>
+      <c r="H14" s="42" t="s">
+        <v>26</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="N14" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
+        <v>26</v>
+      </c>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
     </row>
     <row r="15" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="N15" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="N15" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
